--- a/result2.xlsx
+++ b/result2.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.651814</v>
+        <v>1.20993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-3.670458</v>
+        <v>1.942784</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3.420041</v>
+        <v>-1.643792</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-1.679221</v>
+        <v>1.753399</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.998243</v>
+        <v>0.991551</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3.830741</v>
+        <v>-2.444283</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.482104</v>
+        <v>0.310584</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.997856</v>
+        <v>0.990516</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2.993905</v>
+        <v>-2.153948</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.51673</v>
+        <v>-1.313671</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.99749</v>
+        <v>0.989583</v>
       </c>
     </row>
     <row r="6">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1.190977</v>
+        <v>-0.921273</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3.777464</v>
+        <v>-2.41049</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.997142</v>
+        <v>0.988738</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>-1.006571</v>
+        <v>0.723984</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3.881315</v>
+        <v>-2.535509</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.996812</v>
+        <v>0.987968</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>-2.927971</v>
+        <v>2.121047</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2.809765</v>
+        <v>-1.657607</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.996499</v>
+        <v>0.987264</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>-4.007552</v>
+        <v>2.742835</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.892865</v>
+        <v>-0.129248</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.9962</v>
+        <v>0.986618</v>
       </c>
     </row>
     <row r="10">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>-3.942257</v>
+        <v>2.375787</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-1.306166</v>
+        <v>1.479409</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.995916</v>
+        <v>0.986023</v>
       </c>
     </row>
     <row r="11">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>-2.76256</v>
+        <v>1.165882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>-3.16313</v>
+        <v>2.601295</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.995645</v>
+        <v>0.985472</v>
       </c>
     </row>
     <row r="12">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>-0.805781</v>
+        <v>-0.463015</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>-4.168623</v>
+        <v>2.864347</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.995385</v>
+        <v>0.984962</v>
       </c>
     </row>
     <row r="13">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1.391513</v>
+        <v>-1.971737</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-4.059539</v>
+        <v>2.196322</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.995138</v>
+        <v>0.984487</v>
       </c>
     </row>
     <row r="14">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>3.245866</v>
+        <v>-2.885737</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>-2.875743</v>
+        <v>0.822603</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.9949</v>
+        <v>0.9840449999999999</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4.280437</v>
+        <v>-2.93483</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>-0.934181</v>
+        <v>-0.826666</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.994673</v>
+        <v>0.983632</v>
       </c>
     </row>
     <row r="16">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4.240596</v>
+        <v>-2.117133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1.265458</v>
+        <v>-2.2598</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.994455</v>
+        <v>0.983245</v>
       </c>
     </row>
     <row r="17">
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3.14627</v>
+        <v>-0.679276</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>3.173979</v>
+        <v>-3.069163</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.994246</v>
+        <v>0.982882</v>
       </c>
     </row>
     <row r="18">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1.273812</v>
+        <v>0.970436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>4.328926</v>
+        <v>-3.038348</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.994045</v>
+        <v>0.98254</v>
       </c>
     </row>
     <row r="19">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>-0.922219</v>
+        <v>2.383812</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>4.461018</v>
+        <v>-2.186957</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.993852</v>
+        <v>0.982218</v>
       </c>
     </row>
     <row r="20">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>-2.92396</v>
+        <v>3.193143</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>3.548312</v>
+        <v>-0.749082</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.993667</v>
+        <v>0.981915</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>-4.272344</v>
+        <v>3.199611</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>1.809962</v>
+        <v>0.900906</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.993488</v>
+        <v>0.9816279999999999</v>
       </c>
     </row>
     <row r="22">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>-4.668215</v>
+        <v>2.411588</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-0.354128</v>
+        <v>2.350567</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.993316</v>
+        <v>0.981356</v>
       </c>
     </row>
     <row r="23">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>-4.031694</v>
+        <v>1.029345</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>-2.460035</v>
+        <v>3.251626</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.99315</v>
+        <v>0.981098</v>
       </c>
     </row>
     <row r="24">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>-2.510108</v>
+        <v>-0.61414</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-4.048989</v>
+        <v>3.3981</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.992989</v>
+        <v>0.980854</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>-0.436749</v>
+        <v>-2.137859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>-4.78464</v>
+        <v>2.765027</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.992835</v>
+        <v>0.980621</v>
       </c>
     </row>
     <row r="26">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>1.747131</v>
+        <v>-3.201149</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>-4.518802</v>
+        <v>1.503316</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.992685</v>
+        <v>0.980399</v>
       </c>
     </row>
     <row r="27">
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>3.588184</v>
+        <v>-3.576035</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>-3.314426</v>
+        <v>-0.103532</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.992541</v>
+        <v>0.9801879999999999</v>
       </c>
     </row>
     <row r="28">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>4.713859</v>
+        <v>-3.189674</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-1.424226</v>
+        <v>-1.707659</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.992401</v>
+        <v>0.9799870000000001</v>
       </c>
     </row>
     <row r="29">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>4.903886</v>
+        <v>-2.13101</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.767552</v>
+        <v>-2.973254</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.992266</v>
+        <v>0.979795</v>
       </c>
     </row>
     <row r="30">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>4.127786</v>
+        <v>-0.623792</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>2.826112</v>
+        <v>-3.644666</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.992136</v>
+        <v>0.979611</v>
       </c>
     </row>
     <row r="31">
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>2.543473</v>
+        <v>1.025411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>4.35253</v>
+        <v>-3.593389</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.992009</v>
+        <v>0.9794349999999999</v>
       </c>
     </row>
     <row r="32">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>0.45989</v>
+        <v>2.491659</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>5.058703</v>
+        <v>-2.836673</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.991886</v>
+        <v>0.979266</v>
       </c>
     </row>
     <row r="33">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>-1.726846</v>
+        <v>3.49501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>4.817481</v>
+        <v>-1.526793</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.991767</v>
+        <v>0.979104</v>
       </c>
     </row>
     <row r="34">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>-3.61017</v>
+        <v>3.850993</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>3.68034</v>
+        <v>0.08434800000000001</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.991652</v>
+        <v>0.978949</v>
       </c>
     </row>
     <row r="35">
@@ -1015,13 +1015,13 @@
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>-4.847803</v>
+        <v>3.499986</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>1.861476</v>
+        <v>1.69658</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.99154</v>
+        <v>0.9788</v>
       </c>
     </row>
     <row r="36">
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>-5.221139</v>
+        <v>2.512029</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>-0.306615</v>
+        <v>3.01811</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.991431</v>
+        <v>0.978657</v>
       </c>
     </row>
     <row r="37">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>-4.669721</v>
+        <v>1.06829</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>-2.436389</v>
+        <v>3.816933</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.991325</v>
+        <v>0.978519</v>
       </c>
     </row>
     <row r="38">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>-3.296329</v>
+        <v>-0.5756250000000001</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>-4.15505</v>
+        <v>3.958507</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.991222</v>
+        <v>0.978386</v>
       </c>
     </row>
     <row r="39">
@@ -1079,13 +1079,13 @@
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>-1.343629</v>
+        <v>-2.136772</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>-5.168441</v>
+        <v>3.424353</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.991123</v>
+        <v>0.978258</v>
       </c>
     </row>
     <row r="40">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>0.851908</v>
+        <v>-3.353616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-5.308506</v>
+        <v>2.309996</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.991025</v>
+        <v>0.978135</v>
       </c>
     </row>
     <row r="41">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>2.919691</v>
+        <v>-4.028256</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>-4.557326</v>
+        <v>0.80422</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.990931</v>
+        <v>0.978016</v>
       </c>
     </row>
     <row r="42">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>4.517598</v>
+        <v>-4.055789</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>-3.045145</v>
+        <v>-0.84555</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.990839</v>
+        <v>0.977901</v>
       </c>
     </row>
     <row r="43">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>5.387048</v>
+        <v>-3.437105</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>-1.02424</v>
+        <v>-2.375167</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.99075</v>
+        <v>0.97779</v>
       </c>
     </row>
     <row r="44">
@@ -1159,13 +1159,13 @@
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>5.392094</v>
+        <v>-2.274357</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>1.175755</v>
+        <v>-3.545858</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.990662</v>
+        <v>0.977683</v>
       </c>
     </row>
     <row r="45">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>4.537223</v>
+        <v>-0.75108</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>3.20287</v>
+        <v>-4.179995</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.990577</v>
+        <v>0.977579</v>
       </c>
     </row>
     <row r="46">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>2.962256</v>
+        <v>0.89891</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>4.73893</v>
+        <v>-4.18558</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.990495</v>
+        <v>0.977479</v>
       </c>
     </row>
     <row r="47">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>0.916427</v>
+        <v>2.428405</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>5.547991</v>
+        <v>-3.566592</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.990414</v>
+        <v>0.977382</v>
       </c>
     </row>
     <row r="48">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>-1.283247</v>
+        <v>3.613635</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>5.510074</v>
+        <v>-2.418668</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.990335</v>
+        <v>0.977287</v>
       </c>
     </row>
     <row r="49">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>-3.302101</v>
+        <v>4.28574</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>4.635874</v>
+        <v>-0.911758</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.990258</v>
+        <v>0.977196</v>
       </c>
     </row>
     <row r="50">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>-4.83853</v>
+        <v>4.352747</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>3.061267</v>
+        <v>0.73688</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.990183</v>
+        <v>0.977108</v>
       </c>
     </row>
     <row r="51">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>-5.667688</v>
+        <v>3.80962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>1.023499</v>
+        <v>2.294928</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.99011</v>
+        <v>0.9770219999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>-5.672175</v>
+        <v>2.735772</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>-1.176496</v>
+        <v>3.547666</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.990039</v>
+        <v>0.976939</v>
       </c>
     </row>
     <row r="53">
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>-4.85594</v>
+        <v>1.2812</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>-3.219474</v>
+        <v>4.326588</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.989969</v>
+        <v>0.976858</v>
       </c>
     </row>
     <row r="54">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>-3.340263</v>
+        <v>-0.356165</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>-4.814066</v>
+        <v>4.530389</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.989901</v>
+        <v>0.976779</v>
       </c>
     </row>
     <row r="55">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>-1.343311</v>
+        <v>-1.95834</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>-5.737204</v>
+        <v>4.136012</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.989834</v>
+        <v>0.976703</v>
       </c>
     </row>
     <row r="56">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>0.853065</v>
+        <v>-3.316438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>-5.863416</v>
+        <v>3.198957</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.989769</v>
+        <v>0.976629</v>
       </c>
     </row>
     <row r="57">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>2.94406</v>
+        <v>-4.257244</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>-5.1795</v>
+        <v>1.843455</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>0.9897049999999999</v>
+        <v>0.976557</v>
       </c>
     </row>
     <row r="58">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>4.644227</v>
+        <v>-4.664019</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>-3.783279</v>
+        <v>0.244382</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>0.9896430000000001</v>
+        <v>0.976487</v>
       </c>
     </row>
     <row r="59">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>5.725578</v>
+        <v>-4.489251</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>-1.867377</v>
+        <v>-1.396336</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>0.989582</v>
+        <v>0.976418</v>
       </c>
     </row>
     <row r="60">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>6.046576</v>
+        <v>-3.758259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.309079</v>
+        <v>-2.875575</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>0.989523</v>
+        <v>0.976352</v>
       </c>
     </row>
     <row r="61">
@@ -1431,13 +1431,13 @@
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>5.568603</v>
+        <v>-2.56375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>2.456529</v>
+        <v>-4.013841</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>0.989464</v>
+        <v>0.976287</v>
       </c>
     </row>
     <row r="62">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>4.358337</v>
+        <v>-1.052503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>4.293716</v>
+        <v>-4.676135</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>0.989407</v>
+        <v>0.976224</v>
       </c>
     </row>
     <row r="63">
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>2.576399</v>
+        <v>0.593794</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>5.583948</v>
+        <v>-4.786613</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>0.989351</v>
+        <v>0.976162</v>
       </c>
     </row>
     <row r="64">
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>0.454338</v>
+        <v>2.180971</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>6.164339</v>
+        <v>-4.33565</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>0.989296</v>
+        <v>0.9761030000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>-1.73658</v>
+        <v>3.525282</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>5.964642</v>
+        <v>-3.378921</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0.989243</v>
+        <v>0.976044</v>
       </c>
     </row>
     <row r="66">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>-3.720475</v>
+        <v>4.474138</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>5.013769</v>
+        <v>-2.029043</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>0.98919</v>
+        <v>0.975987</v>
       </c>
     </row>
     <row r="67">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>-5.251324</v>
+        <v>4.922451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>3.433737</v>
+        <v>-0.441115</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>0.989139</v>
+        <v>0.975931</v>
       </c>
     </row>
     <row r="68">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>-6.142556</v>
+        <v>4.822979</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>1.422343</v>
+        <v>1.205884</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0.989088</v>
+        <v>0.975877</v>
       </c>
     </row>
     <row r="69">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>-6.288394</v>
+        <v>4.189849</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>-0.772818</v>
+        <v>2.729579</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>0.989039</v>
+        <v>0.975824</v>
       </c>
     </row>
     <row r="70">
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>-5.674696</v>
+        <v>3.095244</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>-2.885488</v>
+        <v>3.964221</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0.98899</v>
+        <v>0.975772</v>
       </c>
     </row>
     <row r="71">
@@ -1591,13 +1591,13 @@
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>-4.378473</v>
+        <v>1.659942</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>-4.663072</v>
+        <v>4.778106</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>0.988943</v>
+        <v>0.9757209999999999</v>
       </c>
     </row>
     <row r="72">
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>-2.556604</v>
+        <v>0.039053</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>-5.896277</v>
+        <v>5.086678</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>0.988896</v>
+        <v>0.975672</v>
       </c>
     </row>
     <row r="73">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>-0.42554</v>
+        <v>-1.595321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>-6.442689</v>
+        <v>4.860131</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0.98885</v>
+        <v>0.975624</v>
       </c>
     </row>
     <row r="74">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1.76527</v>
+        <v>-3.072511</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>-6.241806</v>
+        <v>4.125006</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>0.988805</v>
+        <v>0.975576</v>
       </c>
     </row>
     <row r="75">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>3.762901</v>
+        <v>-4.24087</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>-5.320139</v>
+        <v>2.959915</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>0.988761</v>
+        <v>0.97553</v>
       </c>
     </row>
     <row r="76">
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>5.339937</v>
+        <v>-4.982735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>-3.786204</v>
+        <v>1.486098</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>0.988718</v>
+        <v>0.975485</v>
       </c>
     </row>
     <row r="77">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>6.319647</v>
+        <v>-5.225406</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>-1.81639</v>
+        <v>-0.145959</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>0.988675</v>
+        <v>0.97544</v>
       </c>
     </row>
     <row r="78">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>6.59469</v>
+        <v>-4.947223</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>0.36635</v>
+        <v>-1.77234</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>0.988633</v>
+        <v>0.975397</v>
       </c>
     </row>
     <row r="79">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>6.137516</v>
+        <v>-4.178366</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>2.518324</v>
+        <v>-3.232257</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>0.988592</v>
+        <v>0.975355</v>
       </c>
     </row>
     <row r="80">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>5.001662</v>
+        <v>-2.996559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>4.402424</v>
+        <v>-4.383705</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>0.988552</v>
+        <v>0.975313</v>
       </c>
     </row>
     <row r="81">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>3.314133</v>
+        <v>-1.518325</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>5.813894</v>
+        <v>-5.11673</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>0.9885119999999999</v>
+        <v>0.975272</v>
       </c>
     </row>
     <row r="82">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1.260069</v>
+        <v>0.11317</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>6.601814</v>
+        <v>-5.363153</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>0.988473</v>
+        <v>0.975233</v>
       </c>
     </row>
     <row r="83">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>-0.9383899999999999</v>
+        <v>1.742371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>6.68416</v>
+        <v>-5.101993</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>0.988435</v>
+        <v>0.975194</v>
       </c>
     </row>
     <row r="84">
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>-3.046532</v>
+        <v>3.216254</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>6.055085</v>
+        <v>-4.36026</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>0.988398</v>
+        <v>0.975155</v>
       </c>
     </row>
     <row r="85">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>-4.84213</v>
+        <v>4.398496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>4.783933</v>
+        <v>-3.209258</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0.988361</v>
+        <v>0.975118</v>
       </c>
     </row>
     <row r="86">
@@ -1831,13 +1831,13 @@
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>-6.138446</v>
+        <v>5.18162</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>3.006416</v>
+        <v>-1.756944</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>0.988324</v>
+        <v>0.975081</v>
       </c>
     </row>
     <row r="87">
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>-6.802889</v>
+        <v>5.496103</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>0.909153</v>
+        <v>-0.137191</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>0.988289</v>
+        <v>0.9750450000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>-6.769565</v>
+        <v>5.315743</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>-1.290595</v>
+        <v>1.502922</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>0.988254</v>
+        <v>0.97501</v>
       </c>
     </row>
     <row r="89">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>-6.04465</v>
+        <v>4.658976</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>-3.367732</v>
+        <v>3.016579</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>0.988219</v>
+        <v>0.974975</v>
       </c>
     </row>
     <row r="90">
@@ -1895,13 +1895,13 @@
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>-4.704316</v>
+        <v>3.586198</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>-5.112297</v>
+        <v>4.270233</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>0.988185</v>
+        <v>0.9749409999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1911,13 +1911,13 @@
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>-2.885677</v>
+        <v>2.193484</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>-6.350259</v>
+        <v>5.155019</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>0.988152</v>
+        <v>0.974907</v>
       </c>
     </row>
     <row r="92">
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>-0.771907</v>
+        <v>0.603409</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>-6.960159</v>
+        <v>5.595657</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>0.988119</v>
+        <v>0.974875</v>
       </c>
     </row>
     <row r="93">
@@ -1943,13 +1943,13 @@
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1.426777</v>
+        <v>-1.046118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>-6.884089</v>
+        <v>5.556166</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>0.988086</v>
+        <v>0.974842</v>
       </c>
     </row>
     <row r="94">
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>3.49428</v>
+        <v>-2.61398</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>-6.132136</v>
+        <v>5.042055</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>0.988054</v>
+        <v>0.974811</v>
       </c>
     </row>
     <row r="95">
@@ -1975,13 +1975,13 @@
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>5.229778</v>
+        <v>-3.967861</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>-4.780083</v>
+        <v>4.098919</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>0.988023</v>
+        <v>0.97478</v>
       </c>
     </row>
     <row r="96">
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>6.466835</v>
+        <v>-4.995154</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>-2.960828</v>
+        <v>2.80773</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>0.987992</v>
+        <v>0.974749</v>
       </c>
     </row>
     <row r="97">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>7.088702</v>
+        <v>-5.61188</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>-0.850548</v>
+        <v>1.277322</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>0.987962</v>
+        <v>0.974719</v>
       </c>
     </row>
     <row r="98">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>7.038488</v>
+        <v>-5.768987</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>1.348879</v>
+        <v>-0.365182</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>0.987932</v>
+        <v>0.9746899999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2039,13 +2039,13 @@
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>6.323409</v>
+        <v>-5.455601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>3.429423</v>
+        <v>-1.985147</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>0.9879019999999999</v>
+        <v>0.974661</v>
       </c>
     </row>
     <row r="100">
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>5.012916</v>
+        <v>-4.699082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>5.196513</v>
+        <v>-3.451496</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>0.987873</v>
+        <v>0.974633</v>
       </c>
     </row>
     <row r="101">
@@ -2071,13 +2071,13 @@
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>3.231086</v>
+        <v>-3.56202</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>6.486894</v>
+        <v>-4.647151</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>0.987845</v>
+        <v>0.9746050000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2087,13 +2087,13 @@
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>1.144158</v>
+        <v>-2.136506</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>7.183121</v>
+        <v>-5.47806</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>0.987816</v>
+        <v>0.974577</v>
       </c>
     </row>
     <row r="103">
@@ -2103,13 +2103,13 @@
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>-1.055471</v>
+        <v>-0.536246</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>7.223497</v>
+        <v>-5.880138</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>0.987789</v>
+        <v>0.97455</v>
       </c>
     </row>
     <row r="104">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>-3.167232</v>
+        <v>1.112788</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>6.606676</v>
+        <v>-5.823664</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>0.987761</v>
+        <v>0.9745239999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2135,13 +2135,13 @@
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>-5.000645</v>
+        <v>2.682386</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>5.390701</v>
+        <v>-5.314879</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>0.987734</v>
+        <v>0.974498</v>
       </c>
     </row>
     <row r="106">
@@ -2151,13 +2151,13 @@
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>-6.392232</v>
+        <v>4.052022</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>3.686739</v>
+        <v>-4.394772</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>0.987708</v>
+        <v>0.974472</v>
       </c>
     </row>
     <row r="107">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>-7.219594</v>
+        <v>5.117899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>1.648242</v>
+        <v>-3.135246</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>0.987681</v>
+        <v>0.974447</v>
       </c>
     </row>
     <row r="108">
@@ -2183,13 +2183,13 @@
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>-7.411514</v>
+        <v>5.800478</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>-0.543371</v>
+        <v>-1.633052</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>0.987656</v>
+        <v>0.974422</v>
       </c>
     </row>
     <row r="109">
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>-6.953318</v>
+        <v>6.04997</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>-2.695127</v>
+        <v>-0.002024</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>0.98763</v>
+        <v>0.974398</v>
       </c>
     </row>
     <row r="110">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>-5.887172</v>
+        <v>5.849462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>-4.619532</v>
+        <v>1.635748</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0.987605</v>
+        <v>0.974374</v>
       </c>
     </row>
     <row r="111">
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>-4.307457</v>
+        <v>5.215521</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>-6.150708</v>
+        <v>3.159106</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0.98758</v>
+        <v>0.97435</v>
       </c>
     </row>
     <row r="112">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>-2.351755</v>
+        <v>4.196328</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>-7.158293</v>
+        <v>4.456698</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>0.987556</v>
+        <v>0.9743270000000001</v>
       </c>
     </row>
     <row r="113">
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>-0.188365</v>
+        <v>2.867562</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>-7.557972</v>
+        <v>5.4349</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>0.987532</v>
+        <v>0.9743039999999999</v>
       </c>
     </row>
     <row r="114">
@@ -2279,13 +2279,13 @@
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>1.998492</v>
+        <v>1.326399</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>-7.317851</v>
+        <v>6.024236</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>0.9875080000000001</v>
+        <v>0.974281</v>
       </c>
     </row>
     <row r="115">
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>4.024463</v>
+        <v>-0.315857</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>-6.460271</v>
+        <v>6.183906</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>0.987484</v>
+        <v>0.974259</v>
       </c>
     </row>
     <row r="116">
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>5.720496</v>
+        <v>-1.941967</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>-5.059032</v>
+        <v>5.904144</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>0.987461</v>
+        <v>0.974237</v>
       </c>
     </row>
     <row r="117">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>6.946646</v>
+        <v>-3.437145</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>-3.232408</v>
+        <v>5.20633</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>0.987438</v>
+        <v>0.9742150000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>7.603152</v>
+        <v>-4.69706</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>-1.132646</v>
+        <v>4.140913</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>0.987416</v>
+        <v>0.974194</v>
       </c>
     </row>
     <row r="119">
@@ -2359,13 +2359,13 @@
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>7.637972</v>
+        <v>-5.634902</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>1.067078</v>
+        <v>2.783359</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>0.987394</v>
+        <v>0.974173</v>
       </c>
     </row>
     <row r="120">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>7.050246</v>
+        <v>-6.187058</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>3.18712</v>
+        <v>1.228488</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>0.987372</v>
+        <v>0.974152</v>
       </c>
     </row>
     <row r="121">
@@ -2391,13 +2391,13 @@
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>5.889551</v>
+        <v>-6.317054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>5.05602</v>
+        <v>-0.416383</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>0.9873499999999999</v>
+        <v>0.974132</v>
       </c>
     </row>
     <row r="122">
@@ -2407,13 +2407,13 @@
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>4.251094</v>
+        <v>-6.017541</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>6.524168</v>
+        <v>-2.038971</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>0.987329</v>
+        <v>0.974112</v>
       </c>
     </row>
     <row r="123">
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>2.267383</v>
+        <v>-5.310278</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>7.475424</v>
+        <v>-3.529702</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>0.987308</v>
+        <v>0.974092</v>
       </c>
     </row>
     <row r="124">
@@ -2439,13 +2439,13 @@
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>0.09710199999999999</v>
+        <v>-4.244151</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>7.835814</v>
+        <v>-4.789017</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>0.987287</v>
+        <v>0.974073</v>
       </c>
     </row>
     <row r="125">
@@ -2455,13 +2455,13 @@
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>-2.087823</v>
+        <v>-2.891436</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>7.578707</v>
+        <v>-5.733825</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>0.987266</v>
+        <v>0.974054</v>
       </c>
     </row>
     <row r="126">
@@ -2471,13 +2471,13 @@
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>-4.115922</v>
+        <v>-1.342609</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>6.726172</v>
+        <v>-6.302713</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>0.987246</v>
+        <v>0.974035</v>
       </c>
     </row>
     <row r="127">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>-5.829542</v>
+        <v>0.299916</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>5.346497</v>
+        <v>-6.459603</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>0.987226</v>
+        <v>0.974016</v>
       </c>
     </row>
     <row r="128">
@@ -2503,13 +2503,13 @@
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>-7.096855</v>
+        <v>1.928669</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>3.548186</v>
+        <v>-6.195666</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>0.987206</v>
+        <v>0.973998</v>
       </c>
     </row>
     <row r="129">
@@ -2519,13 +2519,13 @@
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>-7.821606</v>
+        <v>3.438181</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>1.470992</v>
+        <v>-5.529428</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>0.987186</v>
+        <v>0.97398</v>
       </c>
     </row>
     <row r="130">
@@ -2535,13 +2535,13 @@
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>-7.94995</v>
+        <v>4.731731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>-0.725261</v>
+        <v>-4.505109</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>0.987167</v>
+        <v>0.973962</v>
       </c>
     </row>
     <row r="131">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>-7.473898</v>
+        <v>5.727378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>-2.873137</v>
+        <v>-3.189363</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>0.987148</v>
+        <v>0.973944</v>
       </c>
     </row>
     <row r="132">
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>-6.431236</v>
+        <v>6.362916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>-4.810366</v>
+        <v>-1.666671</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>0.987129</v>
+        <v>0.973927</v>
       </c>
     </row>
     <row r="133">
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>-4.902</v>
+        <v>6.599467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>-6.39196</v>
+        <v>-0.033716</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>0.98711</v>
+        <v>0.973909</v>
       </c>
     </row>
     <row r="134">
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>-3.00187</v>
+        <v>6.423522</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>-7.500791</v>
+        <v>1.606877</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>0.987092</v>
+        <v>0.973892</v>
       </c>
     </row>
     <row r="135">
@@ -2615,13 +2615,13 @@
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>-0.87305</v>
+        <v>5.847372</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>-8.05588</v>
+        <v>3.153018</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>0.987074</v>
+        <v>0.973876</v>
       </c>
     </row>
     <row r="136">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>1.326621</v>
+        <v>4.907919</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>-8.017844</v>
+        <v>4.509457</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>0.987056</v>
+        <v>0.973859</v>
       </c>
     </row>
     <row r="137">
@@ -2647,13 +2647,13 @@
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>3.435481</v>
+        <v>3.664012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>-7.391179</v>
+        <v>5.593521</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>0.987038</v>
+        <v>0.973843</v>
       </c>
     </row>
     <row r="138">
@@ -2663,13 +2663,13 @@
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>5.299899</v>
+        <v>2.192501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>-6.223298</v>
+        <v>6.33995</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>0.987021</v>
+        <v>0.973827</v>
       </c>
     </row>
     <row r="139">
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>6.785304</v>
+        <v>0.583294</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>-4.60047</v>
+        <v>6.704578</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>0.987003</v>
+        <v>0.973811</v>
       </c>
     </row>
     <row r="140">
@@ -2695,13 +2695,13 @@
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>7.78562</v>
+        <v>-1.06627</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>-2.641039</v>
+        <v>6.666651</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>0.986986</v>
+        <v>0.973795</v>
       </c>
     </row>
     <row r="141">
@@ -2711,13 +2711,13 @@
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>8.230467000000001</v>
+        <v>-2.657362</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>-0.486483</v>
+        <v>6.2297</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>0.986969</v>
+        <v>0.97378</v>
       </c>
     </row>
     <row r="142">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>8.089674</v>
+        <v>-4.095561</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>1.709007</v>
+        <v>5.420947</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>0.9869520000000001</v>
+        <v>0.973765</v>
       </c>
     </row>
     <row r="143">
@@ -2743,13 +2743,13 @@
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>7.374852</v>
+        <v>-5.296368</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>3.789639</v>
+        <v>4.289328</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>0.986936</v>
+        <v>0.973749</v>
       </c>
     </row>
     <row r="144">
@@ -2759,13 +2759,13 @@
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>6.137989</v>
+        <v>-6.190007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>5.609026</v>
+        <v>2.902277</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>0.986919</v>
+        <v>0.973735</v>
       </c>
     </row>
     <row r="145">
@@ -2775,13 +2775,13 @@
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>4.467241</v>
+        <v>-6.725273</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>7.04032</v>
+        <v>1.341511</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>0.986903</v>
+        <v>0.97372</v>
       </c>
     </row>
     <row r="146">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>2.480287</v>
+        <v>-6.872214</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>7.984784</v>
+        <v>-0.301933</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>0.986887</v>
+        <v>0.973705</v>
       </c>
     </row>
     <row r="147">
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>0.315759</v>
+        <v>-6.623534</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>8.378254</v>
+        <v>-1.933086</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>0.9868710000000001</v>
+        <v>0.973691</v>
       </c>
     </row>
     <row r="148">
@@ -2823,13 +2823,13 @@
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>-1.876603</v>
+        <v>-5.994667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>8.195088</v>
+        <v>-3.458545</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>0.986856</v>
+        <v>0.973677</v>
       </c>
     </row>
     <row r="149">
@@ -2839,13 +2839,13 @@
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>-3.946371</v>
+        <v>-5.022551</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>7.449395</v>
+        <v>-4.791771</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>0.9868400000000001</v>
+        <v>0.9736629999999999</v>
       </c>
     </row>
     <row r="150">
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>-5.752703</v>
+        <v>-3.763222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>6.193543</v>
+        <v>-5.857881</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>0.986825</v>
+        <v>0.973649</v>
       </c>
     </row>
     <row r="151">
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>-7.173762</v>
+        <v>-2.288372</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>4.514081</v>
+        <v>-6.597688</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>0.98681</v>
+        <v>0.973635</v>
       </c>
     </row>
     <row r="152">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>-8.114686000000001</v>
+        <v>-0.681106</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>2.525448</v>
+        <v>-6.970778</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>0.986795</v>
+        <v>0.973622</v>
       </c>
     </row>
     <row r="153">
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>-8.513591999999999</v>
+        <v>0.968841</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>0.361915</v>
+        <v>-6.957479</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>0.98678</v>
+        <v>0.973608</v>
       </c>
     </row>
     <row r="154">
@@ -2919,13 +2919,13 @@
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>-8.345271</v>
+        <v>2.570162</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>-1.831636</v>
+        <v>-6.559645</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>0.986765</v>
+        <v>0.973595</v>
       </c>
     </row>
     <row r="155">
@@ -2935,13 +2935,13 @@
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>-7.622377</v>
+        <v>4.035019</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>-3.909478</v>
+        <v>-5.800242</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>0.986751</v>
+        <v>0.9735819999999999</v>
       </c>
     </row>
     <row r="156">
@@ -2951,13 +2951,13 @@
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>-6.394093</v>
+        <v>5.28379</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>-5.734668</v>
+        <v>-4.721785</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>0.9867359999999999</v>
+        <v>0.973569</v>
       </c>
     </row>
     <row r="157">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>-4.742425</v>
+        <v>6.249274</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>-7.187937</v>
+        <v>-3.383749</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>0.986722</v>
+        <v>0.973557</v>
       </c>
     </row>
     <row r="158">
@@ -2983,13 +2983,13 @@
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>-2.776412</v>
+        <v>6.880143</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>-8.175253</v>
+        <v>-1.859116</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>0.986708</v>
+        <v>0.973544</v>
       </c>
     </row>
     <row r="159">
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>-0.624689</v>
+        <v>7.143469</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>-8.633607</v>
+        <v>-0.230264</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>0.986694</v>
+        <v>0.973531</v>
       </c>
     </row>
     <row r="160">
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>1.573086</v>
+        <v>7.026225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>-8.534693000000001</v>
+        <v>1.415565</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>0.98668</v>
+        <v>0.973519</v>
       </c>
     </row>
     <row r="161">
@@ -3031,13 +3031,13 @@
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>3.675362</v>
+        <v>6.535693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>-7.886283</v>
+        <v>2.990963</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>0.986666</v>
+        <v>0.973507</v>
       </c>
     </row>
     <row r="162">
@@ -3047,13 +3047,13 @@
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>5.547781</v>
+        <v>5.698799</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>-6.731274</v>
+        <v>4.412972</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>0.986653</v>
+        <v>0.973495</v>
       </c>
     </row>
     <row r="163">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>7.071645</v>
+        <v>4.560422</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>-5.144504</v>
+        <v>5.607375</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>0.98664</v>
+        <v>0.973483</v>
       </c>
     </row>
     <row r="164">
@@ -3079,13 +3079,13 @@
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>8.151242</v>
+        <v>3.180808</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>-3.227613</v>
+        <v>6.512452</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>0.986626</v>
+        <v>0.973471</v>
       </c>
     </row>
     <row r="165">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>8.719595</v>
+        <v>1.632227</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>-1.102295</v>
+        <v>7.082011</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>0.986613</v>
+        <v>0.97346</v>
       </c>
     </row>
     <row r="166">
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>8.742302</v>
+        <v>-0.00492</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>1.097588</v>
+        <v>7.287557</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>0.9866</v>
+        <v>0.973448</v>
       </c>
     </row>
     <row r="167">
@@ -3127,13 +3127,13 @@
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>8.219282</v>
+        <v>-1.646341</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>3.234513</v>
+        <v>7.119519</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>0.986588</v>
+        <v>0.973437</v>
       </c>
     </row>
     <row r="168">
@@ -3143,13 +3143,13 @@
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>7.184358</v>
+        <v>-3.208208</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>5.175887</v>
+        <v>6.587476</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>0.986575</v>
+        <v>0.973426</v>
       </c>
     </row>
     <row r="169">
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>5.702746</v>
+        <v>-4.611412</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>6.802179</v>
+        <v>5.719421</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>0.9865620000000001</v>
+        <v>0.973414</v>
       </c>
     </row>
     <row r="170">
@@ -3175,13 +3175,13 @@
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>3.866659</v>
+        <v>-5.785491</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>8.014113999999999</v>
+        <v>4.560094</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>0.98655</v>
+        <v>0.973403</v>
       </c>
     </row>
     <row r="171">
@@ -3191,13 +3191,13 @@
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>1.78934</v>
+        <v>-6.672057</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>8.738504000000001</v>
+        <v>3.168512</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>0.986537</v>
+        <v>0.973392</v>
       </c>
     </row>
     <row r="172">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>-0.4021</v>
+        <v>-7.227556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>8.932392</v>
+        <v>1.614832</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>0.986525</v>
+        <v>0.973382</v>
       </c>
     </row>
     <row r="173">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>-2.574545</v>
+        <v>-7.425238</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>8.585286</v>
+        <v>-0.023283</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>0.986513</v>
+        <v>0.973371</v>
       </c>
     </row>
     <row r="174">
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>-4.596983</v>
+        <v>-7.256254</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>7.719409</v>
+        <v>-1.664607</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>0.986501</v>
+        <v>0.97336</v>
       </c>
     </row>
     <row r="175">
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>-6.348345</v>
+        <v>-6.729865</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>6.387969</v>
+        <v>-3.228389</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>0.9864889999999999</v>
+        <v>0.97335</v>
       </c>
     </row>
     <row r="176">
@@ -3271,13 +3271,13 @@
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>-7.724619</v>
+        <v>-5.872749</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>4.671615</v>
+        <v>-4.638301</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>0.986478</v>
+        <v>0.97334</v>
       </c>
     </row>
     <row r="177">
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>-8.644837000000001</v>
+        <v>-4.727479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>2.673316</v>
+        <v>-5.826096</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>0.986466</v>
+        <v>0.973329</v>
       </c>
     </row>
     <row r="178">
@@ -3303,13 +3303,13 @@
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>-9.055593</v>
+        <v>-3.350257</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>0.512002</v>
+        <v>-6.73481</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>0.9864540000000001</v>
+        <v>0.973319</v>
       </c>
     </row>
     <row r="179">
@@ -3319,13 +3319,13 @@
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>-8.933870000000001</v>
+        <v>-1.808032</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>-1.684628</v>
+        <v>-7.321361</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>0.986443</v>
+        <v>0.973309</v>
       </c>
     </row>
     <row r="180">
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>-8.288029999999999</v>
+        <v>-0.175154</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>-3.787695</v>
+        <v>-7.558443</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>0.986432</v>
+        <v>0.973299</v>
       </c>
     </row>
     <row r="181">
@@ -3351,13 +3351,13 @@
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>-7.156969</v>
+        <v>1.470269</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>-5.674677</v>
+        <v>-7.435622</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>0.98642</v>
+        <v>0.97329</v>
       </c>
     </row>
     <row r="182">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>-5.607497</v>
+        <v>3.050118</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>-7.23645</v>
+        <v>-6.959623</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>0.986409</v>
+        <v>0.97328</v>
       </c>
     </row>
     <row r="183">
@@ -3383,13 +3383,13 @@
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>-3.73016</v>
+        <v>4.489961</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>-8.383448</v>
+        <v>-6.153799</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>0.986398</v>
+        <v>0.97327</v>
       </c>
     </row>
     <row r="184">
@@ -3399,13 +3399,13 @@
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>-1.633753</v>
+        <v>5.722496</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>-9.050592</v>
+        <v>-5.056822</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>0.986387</v>
+        <v>0.973261</v>
       </c>
     </row>
     <row r="185">
@@ -3415,13 +3415,13 @@
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>0.561117</v>
+        <v>6.690612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>-9.200737999999999</v>
+        <v>-3.720689</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>0.9863769999999999</v>
+        <v>0.973251</v>
       </c>
     </row>
     <row r="186">
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>2.72905</v>
+        <v>7.349922</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>-8.826480999999999</v>
+        <v>-2.208138</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>0.986366</v>
+        <v>0.9732420000000001</v>
       </c>
     </row>
     <row r="187">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>4.74702</v>
+        <v>7.670658</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>-7.950241</v>
+        <v>-0.589611</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>0.986355</v>
+        <v>0.973233</v>
       </c>
     </row>
     <row r="188">
@@ -3463,13 +3463,13 @@
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>6.501307</v>
+        <v>7.638865</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>-6.622657</v>
+        <v>1.060082</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>0.986345</v>
+        <v>0.973224</v>
       </c>
     </row>
     <row r="189">
@@ -3479,13 +3479,13 @@
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>7.893787</v>
+        <v>7.25685</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>-4.919426</v>
+        <v>2.66525</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>0.986334</v>
+        <v>0.973214</v>
       </c>
     </row>
     <row r="190">
@@ -3495,13 +3495,13 @@
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>8.847258999999999</v>
+        <v>6.542878</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>-2.936778</v>
+        <v>4.15278</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>0.986324</v>
+        <v>0.973206</v>
       </c>
     </row>
     <row r="191">
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>9.309514999999999</v>
+        <v>5.530151</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>-0.78589</v>
+        <v>5.455425</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>0.986314</v>
+        <v>0.973197</v>
       </c>
     </row>
     <row r="192">
@@ -3527,13 +3527,13 @@
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>9.255964000000001</v>
+        <v>4.26513</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>1.413458</v>
+        <v>6.514774</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>0.986304</v>
+        <v>0.9731880000000001</v>
       </c>
     </row>
     <row r="193">
@@ -3543,13 +3543,13 @@
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>8.690685999999999</v>
+        <v>2.805288</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>3.539596</v>
+        <v>7.283774</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>0.986294</v>
+        <v>0.973179</v>
       </c>
     </row>
     <row r="194">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>7.645896</v>
+        <v>1.216406</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>5.475678</v>
+        <v>7.728697</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>0.986284</v>
+        <v>0.97317</v>
       </c>
     </row>
     <row r="195">
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>6.179873</v>
+        <v>-0.430451</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>7.116036</v>
+        <v>7.830485</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>0.986274</v>
+        <v>0.973162</v>
       </c>
     </row>
     <row r="196">
@@ -3591,13 +3591,13 @@
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>4.373493</v>
+        <v>-2.062152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>8.37182</v>
+        <v>7.585426</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>0.986264</v>
+        <v>0.973153</v>
       </c>
     </row>
     <row r="197">
@@ -3607,13 +3607,13 @@
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>2.3256</v>
+        <v>-3.606744</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>9.175643000000001</v>
+        <v>7.005137</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>0.986254</v>
+        <v>0.973145</v>
       </c>
     </row>
     <row r="198">
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>0.147458</v>
+        <v>-4.996602</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>9.484992999999999</v>
+        <v>6.115872</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>0.986245</v>
+        <v>0.973137</v>
       </c>
     </row>
     <row r="199">
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>-2.043366</v>
+        <v>-6.171336</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>9.284261000000001</v>
+        <v>4.957208</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>0.986235</v>
+        <v>0.973128</v>
       </c>
     </row>
     <row r="200">
@@ -3655,13 +3655,13 @@
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>-4.129374</v>
+        <v>-7.080328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>8.585285000000001</v>
+        <v>3.580171</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>0.986226</v>
+        <v>0.97312</v>
       </c>
     </row>
     <row r="201">
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>-5.999416</v>
+        <v>-7.684821</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>7.426429</v>
+        <v>2.044889</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>0.986216</v>
+        <v>0.973112</v>
       </c>
     </row>
     <row r="202">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>-7.554522</v>
+        <v>-7.959445</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>5.870266</v>
+        <v>0.417904</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>0.9862069999999999</v>
+        <v>0.973104</v>
       </c>
     </row>
     <row r="203">
@@ -3703,13 +3703,13 @@
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>-8.713024000000001</v>
+        <v>-7.893161</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>4.000006</v>
+        <v>-1.230764</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>0.986198</v>
+        <v>0.973096</v>
       </c>
     </row>
     <row r="204">
@@ -3719,13 +3719,13 @@
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>-9.414669</v>
+        <v>-7.489566</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>1.914894</v>
+        <v>-2.830643</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>0.986189</v>
+        <v>0.973088</v>
       </c>
     </row>
     <row r="205">
@@ -3735,13 +3735,13 @@
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>-9.623569</v>
+        <v>-6.766575</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>-0.275166</v>
+        <v>-4.31381</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>0.9861799999999999</v>
+        <v>0.973081</v>
       </c>
     </row>
     <row r="206">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>-9.329815999999999</v>
+        <v>-5.755505</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>-2.455466</v>
+        <v>-5.617741</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>0.986171</v>
+        <v>0.973073</v>
       </c>
     </row>
     <row r="207">
@@ -3767,13 +3767,13 @@
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>-8.549732000000001</v>
+        <v>-4.499602</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>-4.51252</v>
+        <v>-6.687884</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>0.986162</v>
+        <v>0.973065</v>
       </c>
     </row>
     <row r="208">
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>-7.324754</v>
+        <v>-3.052095</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>-6.33993</v>
+        <v>-7.479859</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>0.9861529999999999</v>
+        <v>0.973058</v>
       </c>
     </row>
     <row r="209">
@@ -3799,13 +3799,13 @@
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>-5.719032</v>
+        <v>-1.473863</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>-7.843811</v>
+        <v>-7.961196</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>0.986144</v>
+        <v>0.97305</v>
       </c>
     </row>
     <row r="210">
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>-3.815904</v>
+        <v>0.169179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>-8.947488</v>
+        <v>-8.112560999999999</v>
       </c>
       <c r="D210" s="1" t="n">
-        <v>0.986135</v>
+        <v>0.973043</v>
       </c>
     </row>
     <row r="211">
@@ -3831,13 +3831,13 @@
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>-1.713428</v>
+        <v>1.80887</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>-9.595249000000001</v>
+        <v>-7.928405</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>0.986127</v>
+        <v>0.973035</v>
       </c>
     </row>
     <row r="212">
@@ -3847,13 +3847,13 @@
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>0.480767</v>
+        <v>3.377631</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>-9.754970999999999</v>
+        <v>-7.417046</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>0.9861180000000001</v>
+        <v>0.973028</v>
       </c>
     </row>
     <row r="213">
@@ -3863,13 +3863,13 @@
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>2.655041</v>
+        <v>4.811236</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>-9.419517000000001</v>
+        <v>-6.600176</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>0.98611</v>
+        <v>0.973021</v>
       </c>
     </row>
     <row r="214">
@@ -3879,13 +3879,13 @@
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>4.699439</v>
+        <v>6.051397</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>-8.606844000000001</v>
+        <v>-5.511828</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>0.986101</v>
+        <v>0.973013</v>
       </c>
     </row>
     <row r="215">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>6.511207</v>
+        <v>7.048074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>-7.358847</v>
+        <v>-4.196862</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>0.986093</v>
+        <v>0.973006</v>
       </c>
     </row>
     <row r="216">
@@ -3911,13 +3911,13 @@
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>7.999881</v>
+        <v>7.761411</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>-5.739016</v>
+        <v>-2.709028</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>0.986085</v>
+        <v>0.9729989999999999</v>
       </c>
     </row>
     <row r="217">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>9.091683</v>
+        <v>8.163237000000001</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>-3.829051</v>
+        <v>-1.108704</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>0.986077</v>
+        <v>0.972992</v>
       </c>
     </row>
     <row r="218">
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>9.733036</v>
+        <v>8.238072000000001</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>-1.724612</v>
+        <v>0.539598</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>0.9860679999999999</v>
+        <v>0.972985</v>
       </c>
     </row>
     <row r="219">
@@ -3959,13 +3959,13 @@
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>9.893014000000001</v>
+        <v>7.983611</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>0.469564</v>
+        <v>2.169858</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>0.98606</v>
+        <v>0.972978</v>
       </c>
     </row>
     <row r="220">
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>9.564651</v>
+        <v>7.410677</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>2.644921</v>
+        <v>3.717194</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>0.986052</v>
+        <v>0.972971</v>
       </c>
     </row>
     <row r="221">
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>8.765048</v>
+        <v>6.542654</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>4.694466</v>
+        <v>5.120417</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>0.986044</v>
+        <v>0.972965</v>
       </c>
     </row>
     <row r="222">
@@ -4007,13 +4007,13 @@
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>7.534303</v>
+        <v>5.414432</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>6.517998</v>
+        <v>6.324416</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>0.986036</v>
+        <v>0.972958</v>
       </c>
     </row>
     <row r="223">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>5.933326</v>
+        <v>4.070915</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>8.026929000000001</v>
+        <v>7.282259</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>0.986029</v>
+        <v>0.972951</v>
       </c>
     </row>
     <row r="224">
@@ -4039,13 +4039,13 @@
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>4.040679</v>
+        <v>2.565159</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>9.148485000000001</v>
+        <v>7.956942</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>0.986021</v>
+        <v>0.9729449999999999</v>
       </c>
     </row>
     <row r="225">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>1.9486</v>
+        <v>0.956216</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>9.829076000000001</v>
+        <v>8.322736000000001</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>0.986013</v>
+        <v>0.972938</v>
       </c>
     </row>
   </sheetData>
